--- a/excel/9. 주소록관리_기능정의서.xlsx
+++ b/excel/9. 주소록관리_기능정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\JUN\01. RUN\AX LAB\messaging service\documents\20251119\spec\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511A8E4-250A-4EC8-AC48-150E2E5583E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA628C-9AC8-4EC1-9162-257D1D179803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+  <si>
+    <t>주소록관리_기능정의서</t>
+  </si>
   <si>
     <t>Role</t>
   </si>
@@ -73,12 +76,41 @@
     <t>주소록 관리</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>주소록 &gt; 주소록 관리</t>
+  </si>
+  <si>
+    <t>ADDR_1_1_0_0_0_P</t>
+  </si>
+  <si>
+    <t>공통</t>
+  </si>
+  <si>
+    <t>1차</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>ADDR_REQ_001</t>
+  </si>
+  <si>
+    <t>- 전화번호 형식 자동 검증
+- 중복 번호 처리 로직 필요
+- 수신거부 관리와 실시간 연동
+- 대량 업로드 시 성능 최적화 필요
+- 엑셀 파일 파싱 오류 처리
+- 그룹 관리 UI/UX 최적화</t>
+  </si>
+  <si>
     <t>주소 추가</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>layer popup</t>
   </si>
   <si>
@@ -86,15 +118,6 @@
   </si>
   <si>
     <t>ADDR_1_1_1_0_0_LP</t>
-  </si>
-  <si>
-    <t>공통</t>
-  </si>
-  <si>
-    <t>1차</t>
-  </si>
-  <si>
-    <t>로그인</t>
   </si>
   <si>
     <t>**1. 주소 추가 레이어 팝업**
@@ -266,13 +289,13 @@
     <t>- 실수 방지를 위한 2단계 확인</t>
   </si>
   <si>
-    <t>```</t>
+    <t>화면흐름도</t>
   </si>
   <si>
     <t>[주소록 관리 페이지 진입]</t>
   </si>
   <si>
-    <t xml:space="preserve">        ↓</t>
+    <t>↓</t>
   </si>
   <si>
     <t>[그룹 선택] → 전체/특정 그룹</t>
@@ -290,7 +313,7 @@
     <t>[검색]  [필터링]  [정렬]</t>
   </si>
   <si>
-    <t xml:space="preserve">        │</t>
+    <t>│</t>
   </si>
   <si>
     <t>┌───────┼────────┬────────┬────────┐</t>
@@ -314,6 +337,9 @@
     <t>[문자 발송] → 문자발송 페이지 연동</t>
   </si>
   <si>
+    <t>주요검증사항</t>
+  </si>
+  <si>
     <t>### 1. 데이터 검증</t>
   </si>
   <si>
@@ -392,6 +418,9 @@
     <t>- 작업 진행 상태 표시</t>
   </si>
   <si>
+    <t>참고사항</t>
+  </si>
+  <si>
     <t>### 데이터 구조</t>
   </si>
   <si>
@@ -411,9 +440,6 @@
   </si>
   <si>
     <t>- group_id (FK)</t>
-  </si>
-  <si>
-    <t>- email (이메일)</t>
   </si>
   <si>
     <t>- memo (메모)</t>
@@ -562,23 +588,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -588,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,14 +619,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,22 +651,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,173 +972,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="400.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1129,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
@@ -1143,84 +1091,54 @@
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="261" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="400.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="261" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
@@ -1232,148 +1150,430 @@
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="261" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="10" spans="1:14" ht="261" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1381,146 +1581,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1528,296 +1865,553 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
